--- a/data/income_statement/3digits/total/861_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/861_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>861-Hospital activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>861-Hospital activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>6813001.66346</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7595977.337910001</v>
+        <v>7595977.33791</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>9609275.86905</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>11281580.36417</v>
+        <v>11323675.45951</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12662725.98654</v>
+        <v>13177181.67077</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>14544355.88813</v>
+        <v>14711741.87324</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>16296928.71767</v>
+        <v>16954591.99776</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>18691385.99146</v>
+        <v>18735417.85028</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>21100844.93407</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>25235067.38911</v>
+        <v>25286476.40859</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>31937648.9217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>31999031.50425</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>36307008.956</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>6662923.614399999</v>
@@ -998,34 +909,39 @@
         <v>9439137.942200001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11094364.77839</v>
+        <v>11136379.94339</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>12384391.44242</v>
+        <v>12891970.20554</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>14213667.56984</v>
+        <v>14380686.63973</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>15950512.88808</v>
+        <v>16596091.72136</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>18166311.04818</v>
+        <v>18208339.87108</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>20426541.58147</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>24208488.41658</v>
+        <v>24259827.76613</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>30435046.32565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>30493948.57139</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>34721638.401</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>17691.22805</v>
@@ -1043,13 +959,13 @@
         <v>48668.18085</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>84134.94238000001</v>
+        <v>84134.94237999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>51555.43087999999</v>
+        <v>51560.43087999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>52614.63566</v>
+        <v>52724.57389</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>117604.28022</v>
@@ -1058,13 +974,18 @@
         <v>298505.26566</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>514778.79015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>515231.2558</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>592499.916</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>132386.82101</v>
@@ -1076,34 +997,39 @@
         <v>152327.84229</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>156971.74896</v>
+        <v>157051.6793</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>229666.36327</v>
+        <v>236543.28438</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>246553.37591</v>
+        <v>246920.29113</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>294860.39871</v>
+        <v>306939.84552</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>472460.30762</v>
+        <v>474353.40531</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>556699.07238</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>728073.7068700001</v>
+        <v>728143.3768</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>987823.8059000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>989851.6770599999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>992870.639</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>197446.15309</v>
@@ -1115,34 +1041,39 @@
         <v>205088.11584</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>344894.28353</v>
+        <v>345077.60147</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>226635.73392</v>
+        <v>244848.63439</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>179582.60531</v>
+        <v>180375.88788</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>260786.63036</v>
+        <v>267425.53628</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>300917.27838</v>
+        <v>310052.90472</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>352397.39538</v>
+        <v>352397.3953800001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>442139.32679</v>
+        <v>442456.84531</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>621763.63111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>621789.34976</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>756133.3050000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>152292.06836</v>
@@ -1154,37 +1085,42 @@
         <v>178893.09451</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>300728.63698</v>
+        <v>300862.73033</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>192036.24964</v>
+        <v>210249.15011</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>121660.96891</v>
+        <v>122454.25148</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>166258.27667</v>
+        <v>171297.92807</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>179143.96858</v>
+        <v>188268.39367</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>220507.83432</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>285090.40312</v>
+        <v>285407.92164</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>440078.57573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>440111.73626</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>555207.053</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>38591.77388</v>
+        <v>38591.77387999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>22493.0734</v>
@@ -1193,19 +1129,19 @@
         <v>19754.50365999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>34080.33718</v>
+        <v>34129.56177</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>27491.93558</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>53049.33225000001</v>
+        <v>53049.33225</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>80633.34309000001</v>
+        <v>81221.2893</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>108666.74096</v>
+        <v>108667.85557</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>117943.65586</v>
@@ -1214,16 +1150,21 @@
         <v>147672.65075</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>172371.77842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>172371.88989</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>187872.29</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>6562.31085</v>
+        <v>6562.310850000001</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>3729.43624</v>
@@ -1241,10 +1182,10 @@
         <v>4872.30415</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>13895.0106</v>
+        <v>14906.31891</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>13106.56884</v>
+        <v>13116.65548</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>13945.9052</v>
@@ -1253,13 +1194,18 @@
         <v>9376.272919999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>9313.276960000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9305.723609999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>13053.962</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>6615555.51037</v>
@@ -1268,37 +1214,42 @@
         <v>7415495.550770001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>9404187.753209999</v>
+        <v>9404187.753210001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>10936686.08064</v>
+        <v>10978597.85804</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>12436090.25262</v>
+        <v>12932333.03638</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14364773.28282</v>
+        <v>14531365.98536</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>16036142.08731</v>
+        <v>16687166.46148</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18390468.71308</v>
+        <v>18425364.94556</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>20748447.53869</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>24792928.06232</v>
+        <v>24844019.56328</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>31315885.29059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>31377242.15449</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>35550875.651</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>5353955.794770001</v>
@@ -1310,37 +1261,42 @@
         <v>7663193.74079</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>9078143.82876</v>
+        <v>9094905.265449999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10135313.8993</v>
+        <v>10554842.38204</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11739925.77371</v>
+        <v>11888330.22407</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>13165742.82046</v>
+        <v>13696869.86354</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>15317259.40938</v>
+        <v>15340194.78519</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>17359816.72343</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>20532694.39602</v>
+        <v>20575950.56995</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>25696117.33043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>25721430.98616999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>28466338.898</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>91077.91197999999</v>
+        <v>91077.91198</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>71979.56031</v>
@@ -1349,7 +1305,7 @@
         <v>93170.79132999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>38233.20415999999</v>
+        <v>38233.20416</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>127442.5415</v>
@@ -1358,7 +1314,7 @@
         <v>112381.61401</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>119805.41541</v>
+        <v>119850.23857</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>82924.47098</v>
@@ -1367,16 +1323,21 @@
         <v>197242.57921</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>253558.27831</v>
+        <v>253570.30883</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>151945.51654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>151968.51654</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>316589.604</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>81381.88442</v>
@@ -1388,16 +1349,16 @@
         <v>134733.72383</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>151162.98981</v>
+        <v>155988.46486</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>196273.13906</v>
+        <v>196415.01062</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>125544.9288</v>
+        <v>125796.54673</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>289265.676</v>
+        <v>290758.6487</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>274308.58111</v>
@@ -1406,16 +1367,21 @@
         <v>328912.18058</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>356452.46402</v>
+        <v>356512.37497</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>512446.44998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>502252.834</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>552672.062</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>5167546.78491</v>
@@ -1427,40 +1393,45 @@
         <v>7425760.833780001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>8876568.09708</v>
+        <v>8888504.05872</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>9798511.01516</v>
+        <v>10217199.4381</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>11292545.04765</v>
+        <v>11440697.88008</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>12732843.71669</v>
+        <v>13261322.10435</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>14927406.41028</v>
+        <v>14950341.78609</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>16818615.68904</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>19895101.85241</v>
+        <v>19938286.08487</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>24992676.76092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>25027511.51168</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>27569419.31</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>13949.21346</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5400.437720000001</v>
+        <v>5400.43772</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>9528.39185</v>
@@ -1469,13 +1440,13 @@
         <v>12179.53771</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>13087.20358</v>
+        <v>13785.39182</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>209454.18325</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>23828.01236</v>
+        <v>24938.87192</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>32619.94701</v>
@@ -1487,13 +1458,18 @@
         <v>27581.80128</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>39048.60299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>39698.12395</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>27657.922</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1261599.7156</v>
@@ -1505,37 +1481,42 @@
         <v>1740994.01242</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1858542.25188</v>
+        <v>1883692.59259</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2300776.35332</v>
+        <v>2377490.65434</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2624847.50911</v>
+        <v>2643035.76129</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2870399.26685</v>
+        <v>2990296.59794</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3073209.3037</v>
+        <v>3085170.16037</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3388630.81526</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4260233.666300001</v>
+        <v>4268068.99333</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5619767.960160001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5655811.168319999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7084536.753</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>858123.54242</v>
+        <v>858123.5424200001</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>1047962.95256</v>
@@ -1544,34 +1525,39 @@
         <v>1231062.10703</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1284172.21103</v>
+        <v>1303017.55095</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1489457.90202</v>
+        <v>1525547.09987</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1663087.37284</v>
+        <v>1671523.9652</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1798736.08074</v>
+        <v>1870974.7508</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1949125.0938</v>
+        <v>1951710.65006</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2109367.75651</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2530879.77404</v>
+        <v>2534274.1484</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3252827.4984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3274224.03149</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3350923.697</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>61.27275</v>
@@ -1606,14 +1592,19 @@
       <c r="M21" s="48" t="n">
         <v>4474.1925</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4455.736</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>75318.90882000001</v>
+        <v>75318.90882</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>105279.6039</v>
@@ -1625,31 +1616,36 @@
         <v>152664.83509</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>196973.45155</v>
+        <v>208453.79988</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>220161.17525</v>
+        <v>220583.83083</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>229545.41948</v>
+        <v>237478.27967</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>257263.17709</v>
+        <v>257266.04904</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>303097.5358300001</v>
+        <v>303097.53583</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>414363.98002</v>
+        <v>414475.29591</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>544480.1923699998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>544836.30077</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>543023.34</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>782743.3608500001</v>
@@ -1661,73 +1657,83 @@
         <v>1105034.20578</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1131107.64438</v>
+        <v>1149952.9843</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1291902.69554</v>
+        <v>1316511.54506</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1439387.61815</v>
+        <v>1447401.55493</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1568862.14765</v>
+        <v>1633167.95752</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1690554.44183</v>
+        <v>1693137.12614</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1790635.83301</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2113317.87744</v>
+        <v>2116600.93591</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2703873.11353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2724913.53822</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2803444.621</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>403476.1731799999</v>
+        <v>403476.17318</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>288041.27444</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>509931.90539</v>
+        <v>509931.9053899999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>574370.04085</v>
+        <v>580675.04164</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>811318.4513000001</v>
+        <v>851943.5544699999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>961760.13627</v>
+        <v>971511.79609</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1071663.18611</v>
+        <v>1119321.84714</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1124084.2099</v>
+        <v>1133459.51031</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1279263.05875</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1729353.89226</v>
+        <v>1733794.84493</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2366940.46176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2381587.13683</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3733613.056</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>313150.45132</v>
@@ -1739,34 +1745,39 @@
         <v>305061.45916</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>435267.8833200001</v>
+        <v>436228.02404</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>415011.61054</v>
+        <v>435652.07142</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>625085.71057</v>
+        <v>633627.23249</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>921330.29354</v>
+        <v>975055.24664</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>923386.51797</v>
+        <v>925336.5338499999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1506346.08389</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3991709.086339999</v>
+        <v>3992121.27156</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3054578.41007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3058850.40283</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3032117.213</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>18672.59895</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>28059.22458</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>21275.816</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>50190.58696</v>
@@ -1838,13 +1854,18 @@
         <v>73600.46706</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>44777.05743000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>44573.18946</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>35274.555</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>42009.75691</v>
@@ -1853,19 +1874,19 @@
         <v>59560.02133</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>80955.83542999999</v>
+        <v>80955.83543000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>107548.48366</v>
+        <v>108103.71586</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>104947.73857</v>
+        <v>105412.86109</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>164450.20803</v>
+        <v>164774.66554</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>221516.98351</v>
+        <v>224146.73251</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>292035.83671</v>
@@ -1874,16 +1895,21 @@
         <v>357500.32758</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>643472.50188</v>
+        <v>643474.6692100001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>793508.7696500001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>794882.37622</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>883067.5209999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>483.54121</v>
@@ -1895,7 +1921,7 @@
         <v>1010.39238</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>774.3621400000001</v>
+        <v>1087.75986</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>879.66437</v>
@@ -1904,7 +1930,7 @@
         <v>399.00737</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>112.61929</v>
+        <v>120.53702</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>448.40348</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>939.8725999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1109.287</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3596.28638</v>
@@ -1943,10 +1974,10 @@
         <v>9101.695969999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>37141.8975</v>
+        <v>37244.87018</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>9552.213729999999</v>
+        <v>9552.213730000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>31402.48671</v>
@@ -1955,13 +1986,18 @@
         <v>8917.661239999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8880.118539999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>11091.4017</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>18854.482</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1277.15387</v>
@@ -1976,13 +2012,13 @@
         <v>2354.46473</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1358.54109</v>
+        <v>1359.01558</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2433.70117</v>
+        <v>2438.11974</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>16933.05459</v>
+        <v>17122.26268</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>9179.010560000001</v>
@@ -1994,13 +2030,18 @@
         <v>8700.017599999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>28995.0509</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>28997.87309</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>86185.361</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>162390.85571</v>
@@ -2012,34 +2053,39 @@
         <v>124941.15634</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>220331.05809</v>
+        <v>220399.50761</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>169800.36876</v>
+        <v>185980.90018</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>326660.83185</v>
+        <v>335116.14294</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>447509.52798</v>
+        <v>485166.2812</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>401311.42996</v>
+        <v>402197.41497</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>859558.3321399998</v>
+        <v>859558.33214</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2959066.96856</v>
+        <v>2959449.87042</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1893987.16738</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1894000.4932</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1657011.018</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1301.71177</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>12802.53203</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>27966.207</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>170.06657</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>942.37262</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1238.749</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>33057.89298999999</v>
+        <v>33057.89299</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>31217.47188</v>
@@ -2129,34 +2185,39 @@
         <v>48003.9613</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>64349.8637</v>
+        <v>64372.92498</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>89821.63556</v>
+        <v>93815.96801000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>103348.51183</v>
+        <v>103105.84658</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>123993.31147</v>
+        <v>137131.66385</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>155641.31313</v>
+        <v>156705.344</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>178316.12954</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>239530.88309</v>
+        <v>239557.99912</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>241686.24434</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>242561.06733</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>300134.217</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>187164.89022</v>
@@ -2168,55 +2229,60 @@
         <v>305350.17828</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>193589.93962</v>
+        <v>194534.14054</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>311169.24217</v>
+        <v>379192.56735</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>407714.55304</v>
+        <v>420251.7839</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>654543.2850400001</v>
+        <v>707426.6982100001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>770293.7482200002</v>
+        <v>771734.1136200001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1271324.95029</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3515556.325139999</v>
+        <v>3515566.4737</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2340292.04397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2340514.93443</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2366472.236</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>7359.95267</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>8058.108609999999</v>
+        <v>8058.10861</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>8275.529770000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>9679.6654</v>
+        <v>9684.374850000002</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10501.50054</v>
+        <v>10501.71104</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>13320.3583</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14307.99475</v>
+        <v>14348.64308</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>18176.46226</v>
@@ -2228,13 +2294,18 @@
         <v>29431.11292</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>43142.23119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>43142.23119000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>28400.344</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>15635.28892</v>
@@ -2246,16 +2317,16 @@
         <v>21642.47717</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>31136.91224</v>
+        <v>31156.59255999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>19999.46565</v>
+        <v>20293.65911</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>50944.59054</v>
+        <v>51475.32336000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>55865.09346</v>
+        <v>56146.93624</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>91521.70656000001</v>
@@ -2267,13 +2338,18 @@
         <v>50714.84662</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>48881.95118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>49042.50197999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>45992.175</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>44.02582999999999</v>
@@ -2294,13 +2370,13 @@
         <v>8200.23208</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>293.15544</v>
+        <v>474.76136</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>1660.00911</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>615.82631</v>
+        <v>615.8263099999999</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>5957.97208</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>14742.9052</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>11369.342</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>145524.95516</v>
@@ -2324,34 +2405,39 @@
         <v>254236.93599</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>108612.4806</v>
+        <v>108833.16751</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>250810.4984</v>
+        <v>310936.91662</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>293706.9707600001</v>
+        <v>304070.698</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>534217.7207899999</v>
+        <v>577302.40203</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>614648.8685900001</v>
+        <v>616083.93291</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1144551.68091</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3347039.1364</v>
+        <v>3347040.42882</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2153483.59545</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2153509.02268</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2155316.461</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1871.3549</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>22841.01917</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>17156.102</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>58.08491</v>
@@ -2408,7 +2499,7 @@
         <v>0.09742000000000001</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>2.85189</v>
+        <v>1644.95083</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>24.22863</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.40443</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>16671.22783</v>
@@ -2441,73 +2537,83 @@
         <v>14399.97315</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>36421.69326</v>
+        <v>37120.8175</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>25644.12414</v>
+        <v>33246.62714</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>39970.65807</v>
+        <v>39971.32993</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>43554.66548</v>
+        <v>52849.30038</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>39714.78158999999</v>
+        <v>39720.08267</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>36580.09999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>50270.79380000001</v>
+        <v>50279.64994</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>57199.93735</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>57236.84978</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>108237.057</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>284629.16468</v>
+        <v>284629.1646799999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>307595.25062</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>494362.24128</v>
+        <v>494362.2412800001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>398882.76006</v>
+        <v>398884.12381</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>629100.3221</v>
+        <v>649326.9157900001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>765714.80373</v>
+        <v>769561.5440700001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1081407.52258</v>
+        <v>1150056.77297</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1294526.37469</v>
+        <v>1295403.30077</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1355693.59811</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2447776.99093</v>
+        <v>2447781.07493</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2365895.26789</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2368052.04655</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2908421.921</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>236758.83659</v>
@@ -2519,40 +2625,45 @@
         <v>339617.17886</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>343731.63183</v>
+        <v>343732.99558</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>421720.9029500001</v>
+        <v>441947.49664</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>612484.4193600001</v>
+        <v>616331.1597000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>735609.11281</v>
+        <v>802857.1847900001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>899990.0188699999</v>
+        <v>900866.94495</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>998636.6556000001</v>
+        <v>998636.6555999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1665996.62487</v>
+        <v>1666000.70887</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1949225.10709</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1950944.29932</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2236532.033</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>47870.32809</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>64139.12575000001</v>
+        <v>64139.12575</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>154745.06242</v>
@@ -2567,25 +2678,30 @@
         <v>153230.38437</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>345798.40977</v>
+        <v>347199.58818</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>394536.3558200001</v>
+        <v>394536.3558199999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>357056.94251</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>781780.36606</v>
+        <v>781780.3660599999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>416670.1608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>417107.74723</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>671889.888</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>244832.5696</v>
@@ -2594,37 +2710,42 @@
         <v>153876.49524</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>15280.94498999999</v>
+        <v>15280.94499</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>417165.2244899999</v>
+        <v>423484.80133</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>286060.49757</v>
+        <v>259076.14275</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>413416.4900699999</v>
+        <v>415325.70061</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>257042.67203</v>
+        <v>236893.6226</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-17349.39504000001</v>
+        <v>-8341.370229999995</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>158590.59424</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-242270.33747</v>
+        <v>-237431.43214</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>715331.5599700001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>731870.5586799999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1490836.112</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>73560.30112999999</v>
@@ -2636,37 +2757,42 @@
         <v>82608.82704999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>99624.06508</v>
+        <v>99907.57104</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>146534.90713</v>
+        <v>149275.05675</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>181829.38059</v>
+        <v>182188.81311</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>160862.15445</v>
+        <v>163648.19141</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>353413.93208</v>
+        <v>353775.30057</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>380538.47156</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>465112.0544</v>
+        <v>465123.04657</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>343695.50175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>345570.18636</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>414599.614</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>971.0952300000001</v>
+        <v>971.09523</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>2419.70169</v>
@@ -2681,10 +2807,10 @@
         <v>6316.3468</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>8148.14257</v>
+        <v>8218.92035</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4806.188099999999</v>
+        <v>4871.85073</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>27949.67224</v>
@@ -2696,13 +2822,18 @@
         <v>9202.488810000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>27454.85519</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>25344.23402</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>12315.832</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>72589.2059</v>
@@ -2711,37 +2842,42 @@
         <v>110507.1506</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>80911.68681999999</v>
+        <v>80911.68682</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>95694.01714000001</v>
+        <v>95977.52310000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>140218.56033</v>
+        <v>142958.70995</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>173681.23802</v>
+        <v>173969.89276</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>156055.96635</v>
+        <v>158776.34068</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>325464.25984</v>
+        <v>325825.62833</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>372253.07226</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>455909.56559</v>
+        <v>455920.55776</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>316240.64656</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>320225.95234</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>402283.782</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>84689.10984999999</v>
@@ -2750,37 +2886,42 @@
         <v>137671.86517</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>728521.3148200001</v>
+        <v>728521.31482</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>257215.98458</v>
+        <v>257417.62431</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>215492.2627</v>
+        <v>218925.10017</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>500707.39809</v>
+        <v>502214.08893</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>233752.60132</v>
+        <v>245007.1781</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>592360.5183899999</v>
+        <v>590961.0645400001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>268696.7397100001</v>
+        <v>268696.73971</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>612850.93116</v>
+        <v>614454.2357099999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>616251.76881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>620561.8952799999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>688748.688</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>8048.827730000001</v>
@@ -2795,7 +2936,7 @@
         <v>37501.01504</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>12786.22087</v>
+        <v>13285.40296</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>25687.88326</v>
@@ -2810,16 +2951,21 @@
         <v>6328.41087</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>27388.26982</v>
+        <v>27489.01733</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>28166.32395</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>28208.14195</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>16953.168</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>8630.53291</v>
@@ -2831,16 +2977,16 @@
         <v>45788.88684000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>39979.51688999999</v>
+        <v>39985.42683</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>38319.1563</v>
+        <v>38644.13324</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>19977.58644</v>
+        <v>20000.7569</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>25186.78132</v>
+        <v>25249.64538</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>31422.69917</v>
@@ -2849,16 +2995,21 @@
         <v>39414.66157</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>53052.99421</v>
+        <v>53150.34136</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>72118.35018000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>67157.39200000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>68009.74920999999</v>
@@ -2870,34 +3021,39 @@
         <v>655083.6425900001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>179735.45265</v>
+        <v>179931.18244</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>164386.88553</v>
+        <v>166995.56397</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>455041.92839</v>
+        <v>456525.44877</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>186113.87025</v>
+        <v>197305.58297</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>546602.00674</v>
+        <v>545202.5528899999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>222953.66727</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>532409.66713</v>
+        <v>533814.87702</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>515967.09468</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>520235.40315</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>604638.128</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>233703.76088</v>
@@ -2909,34 +3065,39 @@
         <v>-630631.54278</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>259573.30499</v>
+        <v>265974.74806</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>217103.142</v>
+        <v>189426.09933</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>94538.47257000003</v>
+        <v>95300.42478999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>184152.22516</v>
+        <v>155534.63591</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-256295.98135</v>
+        <v>-245527.1342000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>270432.3260899999</v>
+        <v>270432.32609</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-390009.21423</v>
+        <v>-386762.62128</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>442775.29291</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>456878.8497600001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1216687.038</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>78058.83394999999</v>
@@ -2948,34 +3109,39 @@
         <v>80800.75135999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>91455.06695000001</v>
+        <v>92838.21244</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>97677.12503</v>
+        <v>97890.99187</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>114284.59851</v>
+        <v>114699.36077</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>105003.44207</v>
+        <v>109636.46479</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>98380.56300999998</v>
+        <v>98555.68495000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>117330.12142</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>145615.41725</v>
+        <v>146448.03207</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>175208.38709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>178889.69843</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>261266.163</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>155644.92693</v>
@@ -2987,31 +3153,34 @@
         <v>-711432.29414</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>168118.23804</v>
+        <v>173136.53562</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>119426.01697</v>
+        <v>91535.10746000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-19746.12594</v>
+        <v>-19398.93598000002</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>79148.78309</v>
+        <v>45898.17112</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-354676.54436</v>
+        <v>-344082.81915</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>153102.20467</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-535624.63148</v>
+        <v>-533210.65335</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>267566.90582</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>277989.15133</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>955420.875</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>669</v>
@@ -3041,31 +3213,34 @@
         <v>964</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1829</v>
+        <v>1836</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1826</v>
+        <v>1853</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1867</v>
+        <v>1887</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2008</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2213</v>
+        <v>2302</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2537</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>